--- a/JavaBatch6/testdata/Test.xlsx
+++ b/JavaBatch6/testdata/Test.xlsx
@@ -1,40 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syntax/eclipse-workspace/JavaBasics/testdata/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40DAD80-F9F3-584B-97FA-8F5719F35D68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="35860" yWindow="460" windowWidth="25580" windowHeight="15540" activeTab="2" xr2:uid="{DD6EF329-E704-714F-A2DA-2F95175D7E30}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="TestData" sheetId="1" r:id="rId3"/>
-    <sheet name="TestSheet" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -57,6 +45,9 @@
     <t>Smith</t>
   </si>
   <si>
+    <t>Chantilly</t>
+  </si>
+  <si>
     <t>VA</t>
   </si>
   <si>
@@ -68,39 +59,38 @@
   <si>
     <t>NY</t>
   </si>
+  <si>
+    <t>Davut</t>
+  </si>
+  <si>
+    <t>Seker</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="26"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,10 +105,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -153,7 +144,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -165,7 +156,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -212,23 +203,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -264,23 +238,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -432,104 +389,125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C12F92C-6800-D54E-A556-E99427720B37}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>20151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>12343</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55FD92E-A9DD-B34A-AA93-490B1C1CB95E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7002651F-DBA2-0840-887B-D582273FA891}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21.5" defaultRowHeight="34" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="16384" width="21.5" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>20151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>12345</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
